--- a/Data/tables/ref_data_counts.xlsx
+++ b/Data/tables/ref_data_counts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">class</t>
   </si>
@@ -36,18 +36,6 @@
   </si>
   <si>
     <t xml:space="preserve">total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summe</t>
   </si>
 </sst>
 </file>
@@ -406,60 +394,60 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>8</v>
+      <c r="A2" t="n">
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>450</v>
+        <v>259</v>
       </c>
       <c r="C2" t="n">
-        <v>592</v>
+        <v>250</v>
       </c>
       <c r="D2" t="n">
-        <v>825</v>
+        <v>350</v>
       </c>
       <c r="E2" t="n">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="F2" t="n">
-        <v>214</v>
+        <v>373</v>
       </c>
       <c r="G2" t="n">
-        <v>628</v>
+        <v>419</v>
       </c>
       <c r="H2" t="n">
-        <v>5902</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>9</v>
+      <c r="A3" t="n">
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>259</v>
+        <v>450</v>
       </c>
       <c r="C3" t="n">
-        <v>250</v>
+        <v>592</v>
       </c>
       <c r="D3" t="n">
-        <v>350</v>
+        <v>825</v>
       </c>
       <c r="E3" t="n">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="F3" t="n">
-        <v>373</v>
+        <v>214</v>
       </c>
       <c r="G3" t="n">
-        <v>419</v>
+        <v>628</v>
       </c>
       <c r="H3" t="n">
-        <v>3718</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>10</v>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>140</v>
@@ -480,33 +468,7 @@
         <v>145</v>
       </c>
       <c r="H4" t="n">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="n">
-        <v>849</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1035</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1294</v>
-      </c>
-      <c r="E5" t="n">
-        <v>635</v>
-      </c>
-      <c r="F5" t="n">
-        <v>701</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1192</v>
-      </c>
-      <c r="H5" t="n">
-        <v>11412</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>
